--- a/output/a_25-03-2024.xlsx
+++ b/output/a_25-03-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,20 +3846,16 @@
           <t>4520A0D430</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>355458174374</t>
-        </is>
+      <c r="C48" t="n">
+        <v>355458174374</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/MTIwMFgxMjAw/z/puUAAOSw7xlfeB4I/$_57.JPG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>33589</t>
-        </is>
+      <c r="E48" t="n">
+        <v>33589</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3904,12 +3900,1842 @@
           <t>TOYOTA GENUINE OEM 4520A-0D430 COLUMN SUBASSY ELECTRIC POWER STEERING 4520A0D430</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>395.09</t>
-        </is>
+      <c r="Y48" t="n">
+        <v>395.09</v>
       </c>
       <c r="Z48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4520A28030</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>353220763763</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTIwMFgxMjAw/z/zUkAAOSwASRfeA0G/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>4520A-28030</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4520A28030</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>TOYOTA GENUINE OEM 4520A-28030 COLUMN SUBASSY ELECTRIC POWER STEERING 4520A28030</t>
+        </is>
+      </c>
+      <c r="Y49" t="n">
+        <v>542.59</v>
+      </c>
+      <c r="Z49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4520A42070</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>352831585415</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTAwMFgxMDAw/z/sq0AAOSwubddsfGb/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>4520A42070</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4520A-42070</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4520A-42070</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>TOYOTA GENUINE 4520A42070 COLUMN SUB-ASSY, ELECTRIC POWER STEERING 4520A-42070</t>
+        </is>
+      </c>
+      <c r="Y50" t="n">
+        <v>580.26</v>
+      </c>
+      <c r="Z50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4520A42080</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>374867502135</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2N1gxNjAw/z/8tMAAOSw3Ytk0ql5/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>4520A42080</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>4520A42080 Genuine Toyota COLUMN SUB-ASSY, ELECTRIC POWER STEERING 4520A-42080</t>
+        </is>
+      </c>
+      <c r="Y51" t="n">
+        <v>548.92</v>
+      </c>
+      <c r="Z51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4520A60020</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>375150407316</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/j6AAAOSwN3NljeRU/$_1.PNG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>9886</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Other Car &amp; Truck Parts &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>4520A60020</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>4520A60020 Genuine Toyota COLUMN SUB-ASSY 4520A-60020</t>
+        </is>
+      </c>
+      <c r="Y52" t="n">
+        <v>1175.5</v>
+      </c>
+      <c r="Z52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>452100K010</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>355077191986</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTAwMFgxMDAw/z/XXoAAOSwv9pePSwh/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>33589</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Gearboxes, Rack &amp; Pinions</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>45210-0K010</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>452100K010</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>TOYOTA GENUINE 45210-0K010 SHAFT ASSY, STEERING MAIN OEM</t>
+        </is>
+      </c>
+      <c r="Y53" t="n">
+        <v>76.04000000000001</v>
+      </c>
+      <c r="Z53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4521027110</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>333574752197</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDc5WDYwMA==/z/rroAAOSwJgRfKgam/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Scion</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>45210-27110</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>xB</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="n">
+        <v>2004</v>
+      </c>
+      <c r="W54" t="n">
+        <v>3</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>45210-27110 Toyota Shaft assy, steering main 4521027110, New Genuine OEM Part</t>
+        </is>
+      </c>
+      <c r="Y54" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>[{'Year': '2006', 'Make': 'Scion', 'Model': 'xB', 'Trim': 'Base Wagon 4-Door', 'Engine': '1.5L 1497CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Scion', 'Model': 'xB', 'Trim': 'Base Wagon 4-Door', 'Engine': '1.5L 1497CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Scion', 'Model': 'xB', 'Trim': 'Base Wagon 4-Door', 'Engine': '1.5L 1497CC l4 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4521035170</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>325928496739</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NDUwWDgwMA==/z/qugAAOSwhfdlexos/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>33589</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Gearboxes, Rack &amp; Pinions</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>JT3FJ80W2M0017113</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>238-51964</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>4521035170</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Cressida</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>4587060100</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="n">
+        <v>1990</v>
+      </c>
+      <c r="W55" t="n">
+        <v>72</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steering Column Automatic AWD OEM 1991 1997 Toyota Landcruiser </t>
+        </is>
+      </c>
+      <c r="Y55" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>[{'Year': '2022', 'Make': 'Toyota', 'Model': 'GR Supra', 'Trim': 'Premium Hatchback 2-Door', 'Engine': '3.0L 2998CC l6 GAS DOHC Turbocharged'}, {'Year': '2012', 'Make': 'Toyota', 'Model': 'Sequoia', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '5.7L 5663CC 345Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'Pre Runner Crew Cab Pickup 4-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'Base Crew Cab Pickup 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Highlander', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.3L 3300CC 202Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Highlander', 'Trim': 'Hybrid Sport Utility 4-Door', 'Engine': '3.3L 3300CC 202Cu. In. V6 FULL HYBRID EV-GAS (FHEV) DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': 'Highlander', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.3L 3300CC 202Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': 'Tundra', 'Trim': 'SR5 Extended Cab Pickup 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'Base Extended Cab Pickup 2-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'Tundra', 'Trim': 'SR5 Crew Cab Pickup 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '1.8L 1794CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'Highlander', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'Tundra', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'Tundra', 'Trim': 'Limited Extended Cab Pickup 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Lexus', 'Model': 'ES300', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Lexus', 'Model': 'RX300', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Lexus', 'Model': 'SC430', 'Trim': 'Base Convertible 2-Door', 'Engine': '4.3L 4293CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Avalon', 'Trim': 'XL Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'SE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Sienna', 'Trim': 'LE Mini Passenger Van 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Avalon', 'Trim': 'XL Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '1.8L 1794CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '1.8L 1795CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Sequoia', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Lexus', 'Model': 'RX300', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Avalon', 'Trim': 'XL Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '1.8L 1794CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Lexus', 'Model': 'RX300', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Sienna', 'Trim': 'LE Mini Passenger Van 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Lexus', 'Model': 'LX450', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Avalon', 'Trim': 'XL Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Corolla', 'Trim': 'Base Sedan 4-Door', 'Engine': '1.6L 1587CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Lexus', 'Model': 'LX450', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Corolla', 'Trim': 'Base Sedan 4-Door', 'Engine': '1.6L 1587CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Corolla', 'Trim': 'Base Sedan 4-Door', 'Engine': '1.6L 1587CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Twin Turbo Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Turbocharged'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.0L 2959CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC l6 GAS OHV Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC l6 GAS OHV Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC l6 GAS OHV Naturally Aspirated'}, {'Year': '1990', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1990', 'Make': 'Toyota', 'Model': 'Cressida', 'Trim': 'Luxury Sedan 4-Door', 'Engine': '3.0L 2954CC l6 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4521035240</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>323595938791</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2N1gxNjAw/z/IIoAAOSw9GJfFY3c/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>33589</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Gearboxes, Rack &amp; Pinions</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>45210-35240</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>4Runner</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>4521035240</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Toyota / Lexus</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>OEM Original Genuine</t>
+        </is>
+      </c>
+      <c r="V56" t="n">
+        <v>2003</v>
+      </c>
+      <c r="W56" t="n">
+        <v>60</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>45210-35240 Toyota OEM Genuine SHAFT ASSY, STEERING MAIN</t>
+        </is>
+      </c>
+      <c r="Y56" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>[{'Year': '2014', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Core Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Premium Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Trail Teams Special Edition Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'FJ Cruiser', 'Trim': 'TRD Special Edition Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Sport Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.0L 3956CC 241Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4521035250</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>155125883625</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/c~4AAOSwNlNiNKXk/$_12.JPG']</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>45210-33240</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Unbranded</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>['Rear']</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>45210-33240 2psc cross clip  buckle for Toyota SHAFT ASSY STEERING MAIN</t>
+        </is>
+      </c>
+      <c r="Y57" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="Z57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4521036090</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>332610560815</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTUwWDU1MA==/z/acoAAOSwR-9d4PDK/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>45210-36090</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>45210-36090 Toyota Shaft assy, steering main 4521036090, New Genuine OEM Part</t>
+        </is>
+      </c>
+      <c r="Y58" t="n">
+        <v>221.88</v>
+      </c>
+      <c r="Z58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4521036120</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>332610560676</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTUwWDU1MA==/z/0NQAAOSwIuBd4PDJ/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>45210-36120</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>45210-36120 Toyota Shaft assy, steering main 4521036120, New Genuine OEM Part</t>
+        </is>
+      </c>
+      <c r="Y59" t="n">
+        <v>187.48</v>
+      </c>
+      <c r="Z59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4521037290</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>332610560866</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTUwWDU1MA==/z/yF4AAOSwCHhd4PDK/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>6755</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Other</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>45210-37290</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>45210-37290 Toyota Shaft assy, steering main 4521037290, New Genuine OEM Part</t>
+        </is>
+      </c>
+      <c r="Y60" t="n">
+        <v>294.12</v>
+      </c>
+      <c r="Z60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4521060090</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>265919051950</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/ODA5WDE1MDA=/z/XRQAAOSwjMxlvMmf/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>262252</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Transmission &amp; Drivetrain:Driveshafts &amp; Parts:Driveshaft Bearings &amp; U-Joints</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4521035221,4521060090,4521060091,4521060101,4521060121</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>AST-LC100</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Tacoma</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Febest</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Universal Joint</t>
+        </is>
+      </c>
+      <c r="V61" t="n">
+        <v>1997</v>
+      </c>
+      <c r="W61" t="n">
+        <v>31</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Universal Joint-Base Febest AST-LC100</t>
+        </is>
+      </c>
+      <c r="Y61" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>[{'Year': '2007', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'DLX Extended Cab Pickup 2-Door', 'Engine': '2.4L 2438CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'DLX Extended Cab Pickup 2-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'DLX Extended Cab Pickup 2-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'DLX Standard Cab Pickup 2-Door', 'Engine': '2.4L 2438CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'DLX Standard Cab Pickup 2-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'DLX Standard Cab Pickup 2-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Tacoma', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4521060091</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>355507046193</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjAwWDgwMA==/z/XUkAAOSwPNZl4lB0/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>174093</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Steering Columns</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>4520560170,4521060091,4587060130</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Land Cruiser</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Steering Column</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
+        <v>1998</v>
+      </c>
+      <c r="W62" t="n">
+        <v>5</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Used Steering Column fits: 1998 Toyota Land cruiser Floor Shift 8 cylinder manua</t>
+        </is>
+      </c>
+      <c r="Y62" t="n">
+        <v>309</v>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>[{'Year': '2002', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4521060100</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>323872325756</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2N1gxNjAw/z/Z3EAAOSwZkFhNMDC/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>33589</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Gearboxes, Rack &amp; Pinions</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>45210-60100</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>4521060100</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>45210-60101</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Land Cruiser</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>4521060101</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Toyota / Lexus</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>OEM Original Genuine</t>
+        </is>
+      </c>
+      <c r="V63" t="n">
+        <v>1998</v>
+      </c>
+      <c r="W63" t="n">
+        <v>20</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>45210-60101 Toyota OEM Genuine SHAFT ASSY, STEERING MAIN</t>
+        </is>
+      </c>
+      <c r="Y63" t="n">
+        <v>191.03</v>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>[{'Year': '2007', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4521060101</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>115992250411</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NzM4WDc5OA==/z/VXgAAOSwQphkNrZ3/$_57.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>45210-60101</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>45210-60101 Toyota GENUINE SHAFT ASSY, STEERING MAIN</t>
+        </is>
+      </c>
+      <c r="Y64" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4521060170</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>323878076885</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/74YAAOSwTUZdScX5/$_1.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>33589</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Gearboxes, Rack &amp; Pinions</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>45210-60170</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>4521060170</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Toyota / Lexus</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>OEM Original Genuine</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>45210-60170 Toyota OEM Genuine SHAFT ASSY, STEERING MAIN</t>
+        </is>
+      </c>
+      <c r="Y65" t="n">
+        <v>158.96</v>
+      </c>
+      <c r="Z65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4521060180</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>186027974387</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/tpcAAOSwH5tk0-Rd/$_1.PNG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>4521060180</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>4521060180 Genuine Toyota SHAFT ASSY, STEERING MAIN 45210-60180</t>
+        </is>
+      </c>
+      <c r="Y66" t="n">
+        <v>147.78</v>
+      </c>
+      <c r="Z66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4521430040</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>155604782219</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTE4Nlg3Njg=/z/BvkAAOSwF-Jkh1a0/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>9886</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Auto &amp; Motorrad: Teile:Autoteile &amp; Zubehör:Sonstige</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Genuine OE Retainer 4521430040 for Toyota 45214-30040</t>
+        </is>
+      </c>
+      <c r="Y67" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="Z67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4521512010</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>324713069220</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/Xp0AAOSwvRpiV~Ph/$_1.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>33589</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Gearboxes, Rack &amp; Pinions</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>45215-12010</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Celica</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>4521512010</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>OEM Original Genuine</t>
+        </is>
+      </c>
+      <c r="V68" t="n">
+        <v>1990</v>
+      </c>
+      <c r="W68" t="n">
+        <v>147</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>45215-12010 Toyota OEM Genuine COLLAR, MAIN SHAFT BEARING THRUST</t>
+        </is>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>[{'Year': '2007', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Lexus', 'Model': 'IS300', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Lexus', 'Model': 'LS400', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Lexus', 'Model': 'LX470', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.7L 4663CC 285Cu. In. V8 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Base Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Twin Turbo Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Turbocharged'}, {'Year': '1997', 'Make': 'Lexus', 'Model': 'LS400', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Lexus', 'Model': 'LX450', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Hatchback 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Base Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Twin Turbo Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Turbocharged'}, {'Year': '1996', 'Make': 'Lexus', 'Model': 'ES300', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Lexus', 'Model': 'LS400', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Lexus', 'Model': 'LX450', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.7L 2694CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': '4Runner', 'Trim': 'SR5 Sport Utility 4-Door', 'Engine': '3.4L 3378CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Hatchback 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'RAV4', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Base Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Twin Turbo Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Turbocharged'}, {'Year': '1995', 'Make': 'Lexus', 'Model': 'ES300', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Lexus', 'Model': 'LS400', 'Trim': 'Base Sedan 4-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'Base Coupe 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Hatchback 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Land Cruiser', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '4.5L 4477CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Base Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1995', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Twin Turbo Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Turbocharged'}, {'Year': '1994', 'Make': 'Lexus', 'Model': 'ES300', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.0L 2995CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'Base Coupe 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Hatchback 2-Door', 'Engine': '1.8L 1762CC 107Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Base Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1994', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Twin Turbo Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Turbocharged'}, {'Year': '1993', 'Make': 'Lexus', 'Model': 'ES300', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.0L 2959CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS All Trac Hatchback 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.6L 1587CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Base Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1993', 'Make': 'Toyota', 'Model': 'Supra', 'Trim': 'Twin Turbo Hatchback 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Turbocharged'}, {'Year': '1992', 'Make': 'Lexus', 'Model': 'ES300', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.0L 2959CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Lexus', 'Model': 'SC300', 'Trim': 'Base Coupe 2-Door', 'Engine': '3.0L 2997CC l6 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Lexus', 'Model': 'SC400', 'Trim': 'Base Coupe 2-Door', 'Engine': '4.0L 3969CC V8 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'All Trac Hatchback 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS Naturally Aspirated'}, {'Year': '1992', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.6L 1587CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'All Trac Hatchback 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Convertible 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS Naturally Aspirated'}, {'Year': '1991', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.6L 1587CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1990', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'All Trac Hatchback 2-Door', 'Engine': '2.0L 1998CC 122Cu. In. l4 GAS DOHC Turbocharged'}, {'Year': '1990', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Coupe 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1990', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GT Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1990', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1990', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'GTS Hatchback 2-Door', 'Engine': '2.2L 2164CC l4 GAS Naturally Aspirated'}, {'Year': '1990', 'Make': 'Toyota', 'Model': 'Celica', 'Trim': 'ST Coupe 2-Door', 'Engine': '1.6L 1587CC l4 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4521522011</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>324713063586</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/lQQAAOSwXW9iV~Ol/$_1.JPG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>33589</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Gearboxes, Rack &amp; Pinions</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>45215-22011</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>4521522011</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>OEM Original Genuine</t>
+        </is>
+      </c>
+      <c r="V69" t="n">
+        <v>1986</v>
+      </c>
+      <c r="W69" t="n">
+        <v>46</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>45215-22011 Toyota OEM Genuine COLLAR, MAIN SHAFT BEARING THRUST</t>
+        </is>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>[{'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Cab &amp; Chassis 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Extended Cab Pickup 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Standard Cab Pickup 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Cab &amp; Chassis 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Standard Cab Pickup 2-Door', 'Engine': '3.0L 2959CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Turbo Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}, {'Year': '1988', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Turbo Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Turbo Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'LN55 DLX Standard Cab Pickup 2-Door', 'Engine': '2.4L 2466CC l4 DIESEL Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'LN67 Standard Cab Pickup 2-Door', 'Engine': '2.4L 2466CC l4 DIESEL Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'RN63 Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Turbo Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}, {'Year': '1987', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Turbo Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'Base Turbo Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'DLX Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'LN55 DLX Standard Cab Pickup 2-Door', 'Engine': '2.4L 2466CC l4 DIESEL Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'LN76 Standard Cab Pickup 2-Door', 'Engine': '2.4L 2466CC l4 DIESEL Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'RN63 Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Standard Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Turbo Cab &amp; Chassis 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}, {'Year': '1986', 'Make': 'Toyota', 'Model': 'Pickup', 'Trim': 'SR5 Turbo Extended Cab Pickup 2-Door', 'Engine': '2.4L 2366CC l4 GAS SOHC Turbocharged'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>452190K010</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>186030732287</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2N1gxNjAw/z/xMwAAOSwuBNk1oaF/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>42609</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>452190K010</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>452190K010 Genuine Toyota YOKE, STEERING SLIDING 45219-0K010</t>
+        </is>
+      </c>
+      <c r="Y70" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="Z70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4522006120</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>404128881354</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjM4WDk2MA==/z/aRsAAOSwUhNl6GnI/$_3.JPG']</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>33580</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Control Arms, Ball Joints &amp; Assemblies</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4522006120 4522006121 45220-33190 45220-33281</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>SKK-TY-021</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>NTY</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="n">
+        <v>2006</v>
+      </c>
+      <c r="W71" t="n">
+        <v>7</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Steering Column Joint For LEXUS Es TOYOTA Camry 06-14 4522006120</t>
+        </is>
+      </c>
+      <c r="Y71" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>[{'Year': '2011', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4522006121</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>404128881354</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NjM4WDk2MA==/z/aRsAAOSwUhNl6GnI/$_3.JPG']</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>33580</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Control Arms, Ball Joints &amp; Assemblies</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>4522006120 4522006121 45220-33190 45220-33281</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>SKK-TY-021</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>NTY</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="n">
+        <v>2006</v>
+      </c>
+      <c r="W72" t="n">
+        <v>7</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Steering Column Joint For LEXUS Es TOYOTA Camry 06-14 4522006120</t>
+        </is>
+      </c>
+      <c r="Y72" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>[{'Year': '2011', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4522006122</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>285378597890</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/Njk0WDE1MDA=/z/DmwAAOSwoxNlwg4F/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>42609</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Steering &amp; Suspension:Other Steering &amp; Suspension Parts</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>4522006122,4522033190,4522033280,4522033281,4522006120</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>AST-ACV40</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Camry</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Febest</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Steering Shaft</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Steering Shaft-LE Febest AST-ACV40</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>66.95</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>[{'Year': '2012', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '2.5L 2494CC 152Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '2.5L 2494CC 152Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '2.5L 2488CC 152Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '2.5L 2494CC 152Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '2.5L 2488CC 152Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '2.5L 2494CC 152Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Lexus', 'Model': 'ES350', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'LE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '2.4L 2362CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Toyota', 'Model': 'Camry', 'Trim': 'XLE Sedan 4-Door', 'Engine': '3.5L 3456CC V6 GAS DOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
